--- a/Adult Income Decision Tree/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs__6331_9495__1_2 .xlsx
+++ b/Adult Income Decision Tree/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs__6331_9495__1_2 .xlsx
@@ -502,16 +502,16 @@
         <v>31655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6719969032647107</v>
+        <v>0.6666875750233875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00193436</v>
+        <v>0.00063716</v>
       </c>
       <c r="I2" t="n">
-        <v>0.772196897480345</v>
+        <v>0.768974238006437</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00129766</v>
+        <v>0.00037369</v>
       </c>
     </row>
     <row r="3">
@@ -536,16 +536,16 @@
         <v>31655</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6160911829013695</v>
+        <v>0.517143061734941</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01067584</v>
+        <v>0.03984192</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7280069109881856</v>
+        <v>0.6752622120302597</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00656347</v>
+        <v>0.01831618</v>
       </c>
     </row>
     <row r="4">
@@ -570,16 +570,16 @@
         <v>31655</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6212391075791862</v>
+        <v>0.6220006283053774</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00217007</v>
+        <v>0.00092645</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7455790579923294</v>
+        <v>0.7460655115987513</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0016645</v>
+        <v>0.00070058</v>
       </c>
     </row>
     <row r="5">
@@ -604,16 +604,16 @@
         <v>6331</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5151256262867021</v>
+        <v>0.397694519061415</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01044291</v>
+        <v>0.03154301</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6737795680346805</v>
+        <v>0.6206675786124906</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00546723</v>
+        <v>0.01277155</v>
       </c>
     </row>
     <row r="6">
@@ -638,16 +638,16 @@
         <v>12662</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5336961866112164</v>
+        <v>0.4250142919018275</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00457792</v>
+        <v>0.01856949</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6837651377771178</v>
+        <v>0.6324622937055747</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0025674</v>
+        <v>0.007893850000000001</v>
       </c>
     </row>
     <row r="7">
@@ -672,16 +672,16 @@
         <v>9495</v>
       </c>
       <c r="G7" t="n">
-        <v>0.528069853550912</v>
+        <v>0.4011815989771225</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00400931</v>
+        <v>0.02700895</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6807409121933249</v>
+        <v>0.6225771646100289</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00225286</v>
+        <v>0.011108</v>
       </c>
     </row>
     <row r="8">
@@ -706,16 +706,16 @@
         <v>18990</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5341866202723204</v>
+        <v>0.4018640086671403</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00582371</v>
+        <v>0.03011774</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6841570050861445</v>
+        <v>0.6222918493176113</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00319</v>
+        <v>0.01261145</v>
       </c>
     </row>
   </sheetData>
